--- a/_reference/Berlin OOBs.xlsx
+++ b/_reference/Berlin OOBs.xlsx
@@ -9,12 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2760" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Berlin Bde" sheetId="1" r:id="rId1"/>
     <sheet name="Forces Françaises à Berlin" sheetId="18" r:id="rId2"/>
     <sheet name="Berlin Infantry Bde" sheetId="19" r:id="rId3"/>
+    <sheet name="6th Guards Sep MRBde" sheetId="20" r:id="rId4"/>
+    <sheet name="1st MRD (DDR)" sheetId="21" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="111">
   <si>
     <t>TOTAL</t>
   </si>
@@ -112,9 +114,6 @@
     <t>VAB</t>
   </si>
   <si>
-    <t>FAMAS</t>
-  </si>
-  <si>
     <t>NF-1</t>
   </si>
   <si>
@@ -173,6 +172,202 @@
   </si>
   <si>
     <t>3rd Btn, 6th Inf</t>
+  </si>
+  <si>
+    <t>6th Guards Separate
+Motor Rifle Brigade</t>
+  </si>
+  <si>
+    <t>154th Sep MRB</t>
+  </si>
+  <si>
+    <t>133rd Sep MRB</t>
+  </si>
+  <si>
+    <t>178th Sep MRB</t>
+  </si>
+  <si>
+    <t>53rd Sep Tank Btn</t>
+  </si>
+  <si>
+    <t>54th Sep Tank Btn</t>
+  </si>
+  <si>
+    <t>10th Sep Tank Btn</t>
+  </si>
+  <si>
+    <t>T-64A</t>
+  </si>
+  <si>
+    <t>BMP-1</t>
+  </si>
+  <si>
+    <t>BTR-60</t>
+  </si>
+  <si>
+    <t>65th Sep Tank Btn</t>
+  </si>
+  <si>
+    <t>AK-74</t>
+  </si>
+  <si>
+    <t>RPK-74</t>
+  </si>
+  <si>
+    <t>PKM</t>
+  </si>
+  <si>
+    <t>SPG-9</t>
+  </si>
+  <si>
+    <t>RPG-7V</t>
+  </si>
+  <si>
+    <t>AGS-17</t>
+  </si>
+  <si>
+    <t>BRM-1</t>
+  </si>
+  <si>
+    <t>BTR-60PA (FAC)</t>
+  </si>
+  <si>
+    <t>PRP-3</t>
+  </si>
+  <si>
+    <t>BRDM-2</t>
+  </si>
+  <si>
+    <t>UAZ-469</t>
+  </si>
+  <si>
+    <t>GAZ-66</t>
+  </si>
+  <si>
+    <t>Eng. Vehicle</t>
+  </si>
+  <si>
+    <t>2B11</t>
+  </si>
+  <si>
+    <t>BMP-1P</t>
+  </si>
+  <si>
+    <t>ZIL-131</t>
+  </si>
+  <si>
+    <t>Ural 375 POL</t>
+  </si>
+  <si>
+    <t>Ural 375</t>
+  </si>
+  <si>
+    <t>2B7/2B11</t>
+  </si>
+  <si>
+    <t>2S1 Gvozdika</t>
+  </si>
+  <si>
+    <t>79 Sep Artillery Btn</t>
+  </si>
+  <si>
+    <t>9K32 Strela-2</t>
+  </si>
+  <si>
+    <t>9K113 Konkurs</t>
+  </si>
+  <si>
+    <t>9K115 Metis</t>
+  </si>
+  <si>
+    <t>AMX-10P</t>
+  </si>
+  <si>
+    <t>FAMAS F-1</t>
+  </si>
+  <si>
+    <t>T-55</t>
+  </si>
+  <si>
+    <t>Artillerieregiment 1
+"Rudolf Gyptner"</t>
+  </si>
+  <si>
+    <t>Panzerregiment 1
+"Friedrich Wolf"</t>
+  </si>
+  <si>
+    <t>Mot. Schützenregiment 3
+"Paul Hegenbarth"</t>
+  </si>
+  <si>
+    <t>Mot. Schützenregiment 2
+"Arthur Ladwig"</t>
+  </si>
+  <si>
+    <t>Mot. Schützenregiment 1
+"Hans Beimer"</t>
+  </si>
+  <si>
+    <t>Fla-Raketenregiment 1
+"Anton Fischer"</t>
+  </si>
+  <si>
+    <t>D-30</t>
+  </si>
+  <si>
+    <t>ZSU-23-4</t>
+  </si>
+  <si>
+    <t>BRDM-2 9P111</t>
+  </si>
+  <si>
+    <t>9K14P</t>
+  </si>
+  <si>
+    <t>BTR-70</t>
+  </si>
+  <si>
+    <t>2S1</t>
+  </si>
+  <si>
+    <t>2S3</t>
+  </si>
+  <si>
+    <t>RM-70</t>
+  </si>
+  <si>
+    <t>1V18 ACRV</t>
+  </si>
+  <si>
+    <t>1V12 ACRV</t>
+  </si>
+  <si>
+    <t>ZIL-130</t>
+  </si>
+  <si>
+    <t>Ural-375</t>
+  </si>
+  <si>
+    <t>TMM</t>
+  </si>
+  <si>
+    <t>MT-55</t>
+  </si>
+  <si>
+    <t>MT-LB</t>
+  </si>
+  <si>
+    <t>SA-6</t>
+  </si>
+  <si>
+    <t>1. motorisierte Schützendivision (DDR)</t>
+  </si>
+  <si>
+    <t>https://de.wikipedia.org/wiki/1._motorisierte_Sch%C3%BCtzendivision</t>
+  </si>
+  <si>
+    <t>9K31 Strela-1</t>
   </si>
 </sst>
 </file>
@@ -256,7 +451,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -300,6 +495,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="60" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="60" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -584,11 +785,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I13" sqref="I13"/>
+      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,7 +816,7 @@
         <v>8</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>9</v>
@@ -2006,9 +2207,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2049,16 +2252,16 @@
       </c>
       <c r="B2" s="12"/>
       <c r="C2" s="9">
-        <f t="shared" ref="C2:C12" si="0">SUM(D2:P2)</f>
-        <v>0</v>
+        <f t="shared" ref="C2:C13" si="0">SUM(D2:P2)</f>
+        <v>391</v>
       </c>
       <c r="D2" s="3">
-        <f>SUMPRODUCT(D3:D31,$B$3:$B$31)</f>
-        <v>0</v>
+        <f>SUMPRODUCT(D3:D32,$B$3:$B$32)</f>
+        <v>140</v>
       </c>
       <c r="E2" s="3">
-        <f t="shared" ref="E2:I2" si="1">SUMPRODUCT(E3:E31,$B$3:$B$31)</f>
-        <v>0</v>
+        <f t="shared" ref="E2:I2" si="1">SUMPRODUCT(E3:E32,$B$3:$B$32)</f>
+        <v>251</v>
       </c>
       <c r="F2" s="3">
         <f t="shared" si="1"/>
@@ -2081,7 +2284,9 @@
       <c r="A3" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="12"/>
+      <c r="B3" s="12">
+        <v>4</v>
+      </c>
       <c r="C3" s="9">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -2097,15 +2302,18 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="12"/>
+        <v>83</v>
+      </c>
+      <c r="B4" s="12">
+        <v>3</v>
+      </c>
       <c r="C4" s="9">
         <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="D4" s="3">
-        <v>70</v>
+        <v>13</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4">
+        <v>13</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -2114,15 +2322,18 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="12"/>
+        <v>27</v>
+      </c>
+      <c r="B5" s="12">
+        <v>2</v>
+      </c>
       <c r="C5" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+        <v>70</v>
+      </c>
+      <c r="D5" s="3">
+        <v>70</v>
+      </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -2130,9 +2341,11 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="12"/>
+        <v>84</v>
+      </c>
+      <c r="B6" s="12">
+        <v>1</v>
+      </c>
       <c r="C6" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2145,7 +2358,12 @@
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="12"/>
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="12">
+        <v>1</v>
+      </c>
       <c r="C7" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2164,6 +2382,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -2215,14 +2434,26 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="12"/>
-      <c r="C13" s="9"/>
+      <c r="C13" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="D13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="12"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2234,7 +2465,7 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection sqref="A1:K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2249,7 +2480,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>17</v>
@@ -2258,25 +2489,25 @@
         <v>0</v>
       </c>
       <c r="D1" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>44</v>
       </c>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
@@ -2323,7 +2554,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="9">
@@ -2345,7 +2576,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="9">
@@ -2367,7 +2598,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="9">
@@ -2389,7 +2620,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" s="12"/>
       <c r="C6" s="9">
@@ -2411,7 +2642,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="9">
         <f t="shared" si="0"/>
@@ -2429,7 +2660,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" s="9">
         <f t="shared" si="0"/>
@@ -2447,7 +2678,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" s="9">
         <f t="shared" si="0"/>
@@ -2501,7 +2732,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12" s="9">
         <f t="shared" si="0"/>
@@ -2537,7 +2768,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C14" s="9">
         <f t="shared" si="0"/>
@@ -2549,7 +2780,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C15" s="9">
         <f t="shared" si="0"/>
@@ -2557,6 +2788,1685 @@
       </c>
       <c r="G15">
         <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.5703125" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="11" width="7.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="9">
+        <f t="shared" ref="C2:C23" si="0">SUM(D2:P2)</f>
+        <v>2010</v>
+      </c>
+      <c r="D2" s="3">
+        <f>SUMPRODUCT(D3:D31,$B$3:$B$31)</f>
+        <v>456</v>
+      </c>
+      <c r="E2" s="3">
+        <f>SUMPRODUCT(E3:E31,$B$3:$B$31)</f>
+        <v>456</v>
+      </c>
+      <c r="F2" s="3">
+        <f>SUMPRODUCT(F3:F31,$B$3:$B$31)</f>
+        <v>478</v>
+      </c>
+      <c r="G2" s="3">
+        <f>SUMPRODUCT(G3:G31,$B$3:$B$31)</f>
+        <v>123</v>
+      </c>
+      <c r="H2" s="3">
+        <f>SUMPRODUCT(H3:H31,$B$3:$B$31)</f>
+        <v>123</v>
+      </c>
+      <c r="I2" s="3">
+        <f>SUMPRODUCT(I3:I31,$B$3:$B$31)</f>
+        <v>123</v>
+      </c>
+      <c r="J2" s="3">
+        <f>SUMPRODUCT(J3:J31,$B$3:$B$31)</f>
+        <v>123</v>
+      </c>
+      <c r="K2" s="3">
+        <f>SUMPRODUCT(K3:K31,$B$3:$B$31)</f>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="12">
+        <v>3</v>
+      </c>
+      <c r="C3" s="9">
+        <f t="shared" si="0"/>
+        <v>124</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3">
+        <v>31</v>
+      </c>
+      <c r="H3" s="3">
+        <v>31</v>
+      </c>
+      <c r="I3" s="3">
+        <v>31</v>
+      </c>
+      <c r="J3" s="3">
+        <v>31</v>
+      </c>
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="12">
+        <v>3</v>
+      </c>
+      <c r="C4" s="9">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="D4" s="3">
+        <v>3</v>
+      </c>
+      <c r="E4" s="3">
+        <v>3</v>
+      </c>
+      <c r="F4" s="3">
+        <v>3</v>
+      </c>
+      <c r="G4" s="3">
+        <v>2</v>
+      </c>
+      <c r="H4" s="3">
+        <v>2</v>
+      </c>
+      <c r="I4" s="3">
+        <v>2</v>
+      </c>
+      <c r="J4" s="3">
+        <v>2</v>
+      </c>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="12">
+        <v>2</v>
+      </c>
+      <c r="C5" s="9">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="D5" s="3">
+        <v>33</v>
+      </c>
+      <c r="E5" s="3">
+        <v>33</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="12">
+        <v>2</v>
+      </c>
+      <c r="C6" s="9">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3">
+        <v>34</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="12">
+        <v>4</v>
+      </c>
+      <c r="C7" s="9">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="D7" s="3">
+        <v>8</v>
+      </c>
+      <c r="E7" s="3">
+        <v>8</v>
+      </c>
+      <c r="F7" s="3">
+        <v>8</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="12">
+        <v>2</v>
+      </c>
+      <c r="C8" s="9">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="D8" s="3">
+        <v>9</v>
+      </c>
+      <c r="E8" s="3">
+        <v>9</v>
+      </c>
+      <c r="F8" s="3">
+        <v>9</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="12">
+        <v>3</v>
+      </c>
+      <c r="C9" s="9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3">
+        <v>4</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="12">
+        <v>2</v>
+      </c>
+      <c r="C10" s="9">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3">
+        <v>9</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="12">
+        <v>3</v>
+      </c>
+      <c r="C11" s="9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3">
+        <v>2</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="9">
+        <f t="shared" si="0"/>
+        <v>107</v>
+      </c>
+      <c r="D12" s="3">
+        <v>35</v>
+      </c>
+      <c r="E12" s="3">
+        <v>35</v>
+      </c>
+      <c r="F12" s="3">
+        <v>37</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="12">
+        <v>3</v>
+      </c>
+      <c r="C13" s="9">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="D13" s="3">
+        <v>6</v>
+      </c>
+      <c r="E13" s="3">
+        <v>6</v>
+      </c>
+      <c r="F13" s="3">
+        <v>6</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="12">
+        <v>1</v>
+      </c>
+      <c r="C14" s="9">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="D14" s="3">
+        <v>27</v>
+      </c>
+      <c r="E14" s="3">
+        <v>27</v>
+      </c>
+      <c r="F14" s="3">
+        <v>27</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="12">
+        <v>1</v>
+      </c>
+      <c r="C15" s="9">
+        <f t="shared" si="0"/>
+        <v>623</v>
+      </c>
+      <c r="D15" s="3">
+        <v>189</v>
+      </c>
+      <c r="E15" s="3">
+        <v>189</v>
+      </c>
+      <c r="F15" s="3">
+        <v>189</v>
+      </c>
+      <c r="G15" s="3">
+        <v>14</v>
+      </c>
+      <c r="H15" s="3">
+        <v>14</v>
+      </c>
+      <c r="I15" s="3">
+        <v>14</v>
+      </c>
+      <c r="J15" s="3">
+        <v>14</v>
+      </c>
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="12">
+        <v>2</v>
+      </c>
+      <c r="C16" s="9">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="D16" s="3">
+        <v>18</v>
+      </c>
+      <c r="E16" s="3">
+        <v>18</v>
+      </c>
+      <c r="F16" s="3">
+        <v>9</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="12">
+        <v>1</v>
+      </c>
+      <c r="C17" s="9">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D17" s="3">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3">
+        <v>3</v>
+      </c>
+      <c r="F17" s="3">
+        <v>3</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="12">
+        <v>1</v>
+      </c>
+      <c r="C18" s="9">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="D18" s="3">
+        <v>15</v>
+      </c>
+      <c r="E18" s="3">
+        <v>15</v>
+      </c>
+      <c r="F18" s="3">
+        <v>15</v>
+      </c>
+      <c r="G18" s="3">
+        <v>7</v>
+      </c>
+      <c r="H18" s="3">
+        <v>7</v>
+      </c>
+      <c r="I18" s="3">
+        <v>7</v>
+      </c>
+      <c r="J18" s="3">
+        <v>7</v>
+      </c>
+      <c r="K18" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="12">
+        <v>1</v>
+      </c>
+      <c r="C19" s="9">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="D19" s="3">
+        <v>4</v>
+      </c>
+      <c r="E19" s="3">
+        <v>4</v>
+      </c>
+      <c r="F19" s="3">
+        <v>4</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="12">
+        <v>1</v>
+      </c>
+      <c r="C20" s="9">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D20" s="3">
+        <v>2</v>
+      </c>
+      <c r="E20" s="3">
+        <v>2</v>
+      </c>
+      <c r="F20" s="3">
+        <v>2</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" s="12">
+        <v>1</v>
+      </c>
+      <c r="C21" s="9">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D21" s="3">
+        <v>2</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2</v>
+      </c>
+      <c r="F21" s="3">
+        <v>2</v>
+      </c>
+      <c r="G21" s="3">
+        <v>3</v>
+      </c>
+      <c r="H21" s="3">
+        <v>3</v>
+      </c>
+      <c r="I21" s="3">
+        <v>3</v>
+      </c>
+      <c r="J21" s="3">
+        <v>3</v>
+      </c>
+      <c r="K21" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" s="12">
+        <v>4</v>
+      </c>
+      <c r="C22" s="9">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="K22">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="12">
+        <v>4</v>
+      </c>
+      <c r="C23" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K23" s="3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.5703125" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="11" width="7.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="138" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="18"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="9">
+        <f>SUM(D2:P2)</f>
+        <v>8856</v>
+      </c>
+      <c r="D2" s="3">
+        <f>SUMPRODUCT(D3:D54,$B$3:$B$54)</f>
+        <v>2320</v>
+      </c>
+      <c r="E2" s="3">
+        <f t="shared" ref="E2:I2" si="0">SUMPRODUCT(E3:E54,$B$3:$B$54)</f>
+        <v>2320</v>
+      </c>
+      <c r="F2" s="3">
+        <f t="shared" si="0"/>
+        <v>2210</v>
+      </c>
+      <c r="G2" s="3">
+        <f t="shared" si="0"/>
+        <v>1131</v>
+      </c>
+      <c r="H2" s="3">
+        <f t="shared" si="0"/>
+        <v>624</v>
+      </c>
+      <c r="I2" s="3">
+        <f t="shared" si="0"/>
+        <v>251</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="12">
+        <v>3</v>
+      </c>
+      <c r="C3" s="9">
+        <f t="shared" ref="C3:C39" si="1">SUM(D3:P3)</f>
+        <v>244</v>
+      </c>
+      <c r="D3" s="3">
+        <v>40</v>
+      </c>
+      <c r="E3" s="3">
+        <v>40</v>
+      </c>
+      <c r="F3">
+        <v>40</v>
+      </c>
+      <c r="G3" s="3">
+        <v>124</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="12">
+        <v>5</v>
+      </c>
+      <c r="C4" s="9">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="D4" s="3">
+        <v>18</v>
+      </c>
+      <c r="E4" s="3">
+        <v>18</v>
+      </c>
+      <c r="F4">
+        <v>18</v>
+      </c>
+      <c r="G4" s="3">
+        <v>18</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="12">
+        <v>4</v>
+      </c>
+      <c r="C5" s="9">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="D5" s="3">
+        <v>24</v>
+      </c>
+      <c r="E5" s="3">
+        <v>24</v>
+      </c>
+      <c r="F5">
+        <v>24</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="12">
+        <v>4</v>
+      </c>
+      <c r="C6" s="9">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="D6" s="3">
+        <v>4</v>
+      </c>
+      <c r="E6" s="3">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6" s="3">
+        <v>4</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="12">
+        <v>3</v>
+      </c>
+      <c r="C7" s="9">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="D7" s="3">
+        <v>4</v>
+      </c>
+      <c r="E7" s="3">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7" s="3">
+        <v>4</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="12">
+        <v>2</v>
+      </c>
+      <c r="C8" s="9">
+        <f t="shared" si="1"/>
+        <v>114</v>
+      </c>
+      <c r="D8" s="3">
+        <v>30</v>
+      </c>
+      <c r="E8" s="3">
+        <v>30</v>
+      </c>
+      <c r="F8">
+        <v>30</v>
+      </c>
+      <c r="G8" s="3">
+        <v>3</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3">
+        <v>21</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" s="12">
+        <v>3</v>
+      </c>
+      <c r="C9" s="9">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="D9" s="3">
+        <v>9</v>
+      </c>
+      <c r="E9" s="3">
+        <v>9</v>
+      </c>
+      <c r="F9">
+        <v>9</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" s="12">
+        <v>3</v>
+      </c>
+      <c r="C10" s="9">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="D10" s="3">
+        <v>12</v>
+      </c>
+      <c r="E10" s="3">
+        <v>12</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="12">
+        <v>3</v>
+      </c>
+      <c r="C11" s="9">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="D11" s="3">
+        <v>21</v>
+      </c>
+      <c r="E11" s="3">
+        <v>21</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="9">
+        <f t="shared" si="1"/>
+        <v>478</v>
+      </c>
+      <c r="D12" s="3">
+        <v>148</v>
+      </c>
+      <c r="E12" s="3">
+        <v>148</v>
+      </c>
+      <c r="F12">
+        <v>146</v>
+      </c>
+      <c r="G12" s="3">
+        <v>36</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="12">
+        <v>3</v>
+      </c>
+      <c r="C13" s="9">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="D13" s="3">
+        <v>18</v>
+      </c>
+      <c r="E13" s="3">
+        <v>18</v>
+      </c>
+      <c r="F13">
+        <v>18</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="12">
+        <v>1</v>
+      </c>
+      <c r="C14" s="9">
+        <f t="shared" si="1"/>
+        <v>327</v>
+      </c>
+      <c r="D14" s="3">
+        <v>102</v>
+      </c>
+      <c r="E14" s="3">
+        <v>102</v>
+      </c>
+      <c r="F14">
+        <v>102</v>
+      </c>
+      <c r="G14" s="3">
+        <v>21</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="12">
+        <v>1</v>
+      </c>
+      <c r="C15" s="9">
+        <f t="shared" si="1"/>
+        <v>2693</v>
+      </c>
+      <c r="D15" s="3">
+        <v>806</v>
+      </c>
+      <c r="E15" s="3">
+        <v>806</v>
+      </c>
+      <c r="F15">
+        <v>806</v>
+      </c>
+      <c r="G15" s="3">
+        <v>275</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="12">
+        <v>2</v>
+      </c>
+      <c r="C16" s="9">
+        <f t="shared" si="1"/>
+        <v>108</v>
+      </c>
+      <c r="D16" s="3">
+        <v>27</v>
+      </c>
+      <c r="E16" s="3">
+        <v>27</v>
+      </c>
+      <c r="F16">
+        <v>54</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="12">
+        <v>2</v>
+      </c>
+      <c r="C17" s="9">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="D17" s="3">
+        <v>21</v>
+      </c>
+      <c r="E17" s="3">
+        <v>21</v>
+      </c>
+      <c r="F17">
+        <v>22</v>
+      </c>
+      <c r="G17" s="3">
+        <v>12</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3">
+        <v>5</v>
+      </c>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="12">
+        <v>3</v>
+      </c>
+      <c r="C18" s="9">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3">
+        <v>1</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" s="12">
+        <v>2</v>
+      </c>
+      <c r="C19" s="9">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="D19" s="3">
+        <v>143</v>
+      </c>
+      <c r="E19" s="3">
+        <v>143</v>
+      </c>
+      <c r="F19">
+        <v>4</v>
+      </c>
+      <c r="G19" s="3">
+        <v>4</v>
+      </c>
+      <c r="H19" s="3">
+        <v>6</v>
+      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="12">
+        <v>3</v>
+      </c>
+      <c r="C20" s="9">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" s="3">
+        <v>1</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3">
+        <v>1</v>
+      </c>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="12">
+        <v>3</v>
+      </c>
+      <c r="C21" s="9">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="12">
+        <v>2</v>
+      </c>
+      <c r="C22" s="9">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="D22">
+        <v>4</v>
+      </c>
+      <c r="E22">
+        <v>4</v>
+      </c>
+      <c r="F22">
+        <v>4</v>
+      </c>
+      <c r="G22" s="3">
+        <v>4</v>
+      </c>
+      <c r="K22" s="3"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="12">
+        <v>2</v>
+      </c>
+      <c r="C23" s="9">
+        <f t="shared" si="1"/>
+        <v>138</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>129</v>
+      </c>
+      <c r="G23" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="12">
+        <v>1</v>
+      </c>
+      <c r="C24" s="9">
+        <f t="shared" si="1"/>
+        <v>108</v>
+      </c>
+      <c r="D24">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>22</v>
+      </c>
+      <c r="F24">
+        <v>22</v>
+      </c>
+      <c r="G24">
+        <v>13</v>
+      </c>
+      <c r="H24">
+        <v>22</v>
+      </c>
+      <c r="I24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="12">
+        <v>1</v>
+      </c>
+      <c r="C25" s="9">
+        <f t="shared" si="1"/>
+        <v>270</v>
+      </c>
+      <c r="D25">
+        <v>67</v>
+      </c>
+      <c r="E25">
+        <v>67</v>
+      </c>
+      <c r="F25">
+        <v>62</v>
+      </c>
+      <c r="G25">
+        <v>17</v>
+      </c>
+      <c r="H25">
+        <v>38</v>
+      </c>
+      <c r="I25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>102</v>
+      </c>
+      <c r="B26" s="12">
+        <v>1</v>
+      </c>
+      <c r="C26" s="9">
+        <f t="shared" si="1"/>
+        <v>177</v>
+      </c>
+      <c r="D26">
+        <v>14</v>
+      </c>
+      <c r="E26">
+        <v>14</v>
+      </c>
+      <c r="F26">
+        <v>14</v>
+      </c>
+      <c r="G26">
+        <v>73</v>
+      </c>
+      <c r="H26">
+        <v>59</v>
+      </c>
+      <c r="I26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>103</v>
+      </c>
+      <c r="B27" s="12">
+        <v>1</v>
+      </c>
+      <c r="C27" s="9">
+        <f t="shared" si="1"/>
+        <v>287</v>
+      </c>
+      <c r="D27">
+        <v>57</v>
+      </c>
+      <c r="E27">
+        <v>57</v>
+      </c>
+      <c r="F27">
+        <v>23</v>
+      </c>
+      <c r="G27">
+        <v>22</v>
+      </c>
+      <c r="H27">
+        <v>90</v>
+      </c>
+      <c r="I27">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" s="12">
+        <v>1</v>
+      </c>
+      <c r="C28" s="9">
+        <f t="shared" si="1"/>
+        <v>191</v>
+      </c>
+      <c r="D28">
+        <v>36</v>
+      </c>
+      <c r="E28">
+        <v>36</v>
+      </c>
+      <c r="F28">
+        <v>36</v>
+      </c>
+      <c r="G28">
+        <v>34</v>
+      </c>
+      <c r="H28">
+        <v>15</v>
+      </c>
+      <c r="I28">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" s="12">
+        <v>1</v>
+      </c>
+      <c r="C29" s="9">
+        <f t="shared" si="1"/>
+        <v>135</v>
+      </c>
+      <c r="D29">
+        <v>26</v>
+      </c>
+      <c r="E29">
+        <v>26</v>
+      </c>
+      <c r="F29">
+        <v>26</v>
+      </c>
+      <c r="G29">
+        <v>26</v>
+      </c>
+      <c r="H29">
+        <v>16</v>
+      </c>
+      <c r="I29">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B30" s="12">
+        <v>3</v>
+      </c>
+      <c r="C30" s="9">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B31" s="12">
+        <v>3</v>
+      </c>
+      <c r="C31" s="9">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="D31">
+        <v>4</v>
+      </c>
+      <c r="E31">
+        <v>4</v>
+      </c>
+      <c r="F31">
+        <v>4</v>
+      </c>
+      <c r="G31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" s="12">
+        <v>2</v>
+      </c>
+      <c r="C32" s="9">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="D32">
+        <v>24</v>
+      </c>
+      <c r="E32">
+        <v>24</v>
+      </c>
+      <c r="F32">
+        <v>24</v>
+      </c>
+      <c r="G32">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>98</v>
+      </c>
+      <c r="B33" s="12">
+        <v>4</v>
+      </c>
+      <c r="C33" s="9">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="H33">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" s="12">
+        <v>3</v>
+      </c>
+      <c r="C34" s="9">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="H34">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>92</v>
+      </c>
+      <c r="B35" s="12">
+        <v>5</v>
+      </c>
+      <c r="C35" s="9">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="H35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>100</v>
+      </c>
+      <c r="B36" s="12">
+        <v>2</v>
+      </c>
+      <c r="C36" s="9">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="H36">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>101</v>
+      </c>
+      <c r="B37" s="12">
+        <v>2</v>
+      </c>
+      <c r="C37" s="9">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="H37">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>106</v>
+      </c>
+      <c r="B38" s="12">
+        <v>2</v>
+      </c>
+      <c r="C38" s="9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>107</v>
+      </c>
+      <c r="B39" s="12">
+        <v>4</v>
+      </c>
+      <c r="C39" s="9">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="I39">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/_reference/Berlin OOBs.xlsx
+++ b/_reference/Berlin OOBs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2760" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2760" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Berlin Bde" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,8 @@
     <sheet name="Berlin Infantry Bde" sheetId="19" r:id="rId3"/>
     <sheet name="6th Guards Sep MRBde" sheetId="20" r:id="rId4"/>
     <sheet name="1st MRD (DDR)" sheetId="21" r:id="rId5"/>
+    <sheet name="DDR Border Rgts" sheetId="23" r:id="rId6"/>
+    <sheet name="DDR other" sheetId="22" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="142">
   <si>
     <t>TOTAL</t>
   </si>
@@ -123,12 +125,6 @@
     <t>FV432</t>
   </si>
   <si>
-    <t>Ferret</t>
-  </si>
-  <si>
-    <t>FV434</t>
-  </si>
-  <si>
     <t>FV432/81mm</t>
   </si>
   <si>
@@ -138,9 +134,6 @@
     <t>Spartan MCT</t>
   </si>
   <si>
-    <t>Scimitar</t>
-  </si>
-  <si>
     <t>2" mortar</t>
   </si>
   <si>
@@ -166,9 +159,6 @@
   </si>
   <si>
     <t>LAAD Javelin</t>
-  </si>
-  <si>
-    <t>Chieftain Mk IX</t>
   </si>
   <si>
     <t>3rd Btn, 6th Inf</t>
@@ -368,6 +358,111 @@
   </si>
   <si>
     <t>9K31 Strela-1</t>
+  </si>
+  <si>
+    <t>LRAC F1</t>
+  </si>
+  <si>
+    <t>MILAN</t>
+  </si>
+  <si>
+    <t>Hotchkiss M201</t>
+  </si>
+  <si>
+    <t>M40A1 Recoiless Rifle</t>
+  </si>
+  <si>
+    <t>81mm mortar</t>
+  </si>
+  <si>
+    <t>20mm AA gun</t>
+  </si>
+  <si>
+    <t>120mm mortar</t>
+  </si>
+  <si>
+    <t>AMX-10PC</t>
+  </si>
+  <si>
+    <t>M-47 Dragon</t>
+  </si>
+  <si>
+    <t>FV432 RARDEN</t>
+  </si>
+  <si>
+    <t>Fox CVR(W)</t>
+  </si>
+  <si>
+    <t>Wombat 120mm RR</t>
+  </si>
+  <si>
+    <t>Chieftain Mk VI</t>
+  </si>
+  <si>
+    <t>Other DDR units</t>
+  </si>
+  <si>
+    <t>FJB 40</t>
+  </si>
+  <si>
+    <t>40 Artillery Bde</t>
+  </si>
+  <si>
+    <t>40 Security Btn</t>
+  </si>
+  <si>
+    <t>18 People's Police</t>
+  </si>
+  <si>
+    <t>19 People's Police</t>
+  </si>
+  <si>
+    <t>Postdam KdA</t>
+  </si>
+  <si>
+    <t>Berlin KdA</t>
+  </si>
+  <si>
+    <t>Grenzregiment 33</t>
+  </si>
+  <si>
+    <t>Grenzregiment 34</t>
+  </si>
+  <si>
+    <t>Grenzregiment 35</t>
+  </si>
+  <si>
+    <t>Grenzregiment 36</t>
+  </si>
+  <si>
+    <t>Grenzregiment 38</t>
+  </si>
+  <si>
+    <t>Grenzregiment 39</t>
+  </si>
+  <si>
+    <t>Grenzregiment 42</t>
+  </si>
+  <si>
+    <t>Grenzregiment 44</t>
+  </si>
+  <si>
+    <t>BTR-152</t>
+  </si>
+  <si>
+    <t>MPi-KM</t>
+  </si>
+  <si>
+    <t>RPK</t>
+  </si>
+  <si>
+    <t>M151</t>
+  </si>
+  <si>
+    <t>MPi-KMS</t>
+  </si>
+  <si>
+    <t>RPG-7D</t>
   </si>
 </sst>
 </file>
@@ -451,7 +546,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -501,6 +596,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="60" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -783,13 +881,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P99"/>
+  <dimension ref="A1:P98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomRight" activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -816,7 +914,7 @@
         <v>8</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>9</v>
@@ -844,31 +942,31 @@
       </c>
       <c r="C2" s="9">
         <f t="shared" ref="C2:C12" si="0">SUM(D2:P2)</f>
-        <v>3484</v>
+        <v>3668</v>
       </c>
       <c r="D2" s="3">
-        <f>SUMPRODUCT(D3:D31,$B$3:$B$31)</f>
-        <v>510</v>
+        <f>SUMPRODUCT(D3:D30,$B$3:$B$30)</f>
+        <v>554</v>
       </c>
       <c r="E2" s="3">
-        <f t="shared" ref="E2:I2" si="1">SUMPRODUCT(E3:E31,$B$3:$B$31)</f>
-        <v>510</v>
+        <f>SUMPRODUCT(E3:E30,$B$3:$B$30)</f>
+        <v>554</v>
       </c>
       <c r="F2" s="3">
-        <f t="shared" si="1"/>
-        <v>510</v>
+        <f>SUMPRODUCT(F3:F30,$B$3:$B$30)</f>
+        <v>554</v>
       </c>
       <c r="G2" s="3">
-        <f t="shared" si="1"/>
+        <f>SUMPRODUCT(G3:G30,$B$3:$B$30)</f>
         <v>50</v>
       </c>
       <c r="H2" s="3">
-        <f t="shared" si="1"/>
-        <v>1840</v>
+        <f>SUMPRODUCT(H3:H30,$B$3:$B$30)</f>
+        <v>1860</v>
       </c>
       <c r="I2" s="3">
-        <f t="shared" si="1"/>
-        <v>64</v>
+        <f>SUMPRODUCT(I3:I30,$B$3:$B$30)</f>
+        <v>96</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -887,14 +985,14 @@
       </c>
       <c r="C3" s="9">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -913,20 +1011,22 @@
       </c>
       <c r="C4" s="9">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="D4" s="3">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F4" s="3">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
+      <c r="I4" s="3">
+        <v>1</v>
+      </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
@@ -944,27 +1044,30 @@
       </c>
       <c r="C5" s="9">
         <f t="shared" si="0"/>
-        <v>2127</v>
+        <v>2145</v>
       </c>
       <c r="D5" s="3">
         <f>3*(11+3*30)</f>
         <v>303</v>
       </c>
       <c r="E5" s="3">
-        <f t="shared" ref="E5:F5" si="2">3*(11+3*30)</f>
+        <f t="shared" ref="E5:F5" si="1">3*(11+3*30)</f>
         <v>303</v>
       </c>
       <c r="F5" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>303</v>
       </c>
       <c r="G5" s="3">
         <v>18</v>
       </c>
       <c r="H5" s="3">
-        <v>1200</v>
-      </c>
-      <c r="I5" s="3"/>
+        <f>303*4</f>
+        <v>1212</v>
+      </c>
+      <c r="I5" s="3">
+        <v>6</v>
+      </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
@@ -982,23 +1085,24 @@
       </c>
       <c r="C6" s="9">
         <f t="shared" si="0"/>
-        <v>299</v>
+        <v>231</v>
       </c>
       <c r="D6" s="3">
         <f>3*3*3+6</f>
         <v>33</v>
       </c>
       <c r="E6" s="3">
-        <f t="shared" ref="E6:F6" si="3">3*3*3+6</f>
+        <f t="shared" ref="E6:F6" si="2">3*3*3+6</f>
         <v>33</v>
       </c>
       <c r="F6" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3">
-        <v>200</v>
+        <f>33*4</f>
+        <v>132</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -1018,23 +1122,24 @@
       </c>
       <c r="C7" s="9">
         <f t="shared" si="0"/>
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="D7" s="3">
         <f>3*3*3*2</f>
         <v>54</v>
       </c>
       <c r="E7" s="3">
-        <f t="shared" ref="E7:F7" si="4">3*3*3*2</f>
+        <f t="shared" ref="E7:F7" si="3">3*3*3*2</f>
         <v>54</v>
       </c>
       <c r="F7" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>54</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3">
-        <v>200</v>
+        <f>44*4</f>
+        <v>176</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -1192,9 +1297,25 @@
       <c r="P12" s="3"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C13" s="9"/>
-      <c r="D13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="A13" t="s">
+        <v>115</v>
+      </c>
+      <c r="B13" s="12">
+        <v>2</v>
+      </c>
+      <c r="C13" s="9">
+        <f t="shared" ref="C13" si="4">SUM(D13:P13)</f>
+        <v>36</v>
+      </c>
+      <c r="D13" s="3">
+        <v>12</v>
+      </c>
+      <c r="E13">
+        <v>12</v>
+      </c>
+      <c r="F13" s="3">
+        <v>12</v>
+      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="L13" s="3"/>
@@ -1204,11 +1325,22 @@
       <c r="P13" s="3"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C14" s="9"/>
+      <c r="A14" t="s">
+        <v>139</v>
+      </c>
+      <c r="B14" s="12">
+        <v>2</v>
+      </c>
+      <c r="C14" s="9">
+        <f t="shared" ref="C14" si="5">SUM(D14:P14)</f>
+        <v>50</v>
+      </c>
       <c r="D14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="H14" s="3">
+        <v>50</v>
+      </c>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
@@ -1396,6 +1528,8 @@
       <c r="P29" s="3"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="13"/>
       <c r="C30" s="9"/>
       <c r="D30" s="3"/>
       <c r="F30" s="3"/>
@@ -1408,8 +1542,8 @@
       <c r="P30" s="3"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="13"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="14"/>
       <c r="C31" s="9"/>
       <c r="D31" s="3"/>
       <c r="F31" s="3"/>
@@ -1422,8 +1556,6 @@
       <c r="P31" s="3"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-      <c r="B32" s="14"/>
       <c r="C32" s="9"/>
       <c r="D32" s="3"/>
       <c r="F32" s="3"/>
@@ -1435,21 +1567,21 @@
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C33" s="9"/>
-      <c r="D33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="6"/>
+      <c r="B36" s="15"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="B37" s="15"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C38" s="9"/>
@@ -1788,6 +1920,8 @@
       <c r="P65" s="3"/>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A66" s="4"/>
+      <c r="B66" s="13"/>
       <c r="C66" s="9"/>
       <c r="D66" s="3"/>
       <c r="F66" s="3"/>
@@ -1800,8 +1934,8 @@
       <c r="P66" s="3"/>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A67" s="4"/>
-      <c r="B67" s="13"/>
+      <c r="A67" s="5"/>
+      <c r="B67" s="14"/>
       <c r="C67" s="9"/>
       <c r="D67" s="3"/>
       <c r="F67" s="3"/>
@@ -1814,8 +1948,6 @@
       <c r="P67" s="3"/>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A68" s="5"/>
-      <c r="B68" s="14"/>
       <c r="C68" s="9"/>
       <c r="D68" s="3"/>
       <c r="F68" s="3"/>
@@ -2187,18 +2319,6 @@
       <c r="O98" s="3"/>
       <c r="P98" s="3"/>
     </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C99" s="9"/>
-      <c r="D99" s="3"/>
-      <c r="F99" s="3"/>
-      <c r="G99" s="3"/>
-      <c r="H99" s="3"/>
-      <c r="L99" s="3"/>
-      <c r="M99" s="3"/>
-      <c r="N99" s="3"/>
-      <c r="O99" s="3"/>
-      <c r="P99" s="3"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2207,10 +2327,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2223,7 +2343,7 @@
     <col min="6" max="9" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
@@ -2245,42 +2365,38 @@
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="8"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="12"/>
       <c r="C2" s="9">
-        <f t="shared" ref="C2:C13" si="0">SUM(D2:P2)</f>
-        <v>391</v>
+        <f>SUM(D2:O2)</f>
+        <v>1326</v>
       </c>
       <c r="D2" s="3">
-        <f>SUMPRODUCT(D3:D32,$B$3:$B$32)</f>
-        <v>140</v>
+        <f>SUMPRODUCT(D3:D33,$B$3:$B$33)</f>
+        <v>938</v>
       </c>
       <c r="E2" s="3">
-        <f t="shared" ref="E2:I2" si="1">SUMPRODUCT(E3:E32,$B$3:$B$32)</f>
-        <v>251</v>
+        <f t="shared" ref="E2:I2" si="0">SUMPRODUCT(E3:E33,$B$3:$B$33)</f>
+        <v>388</v>
       </c>
       <c r="F2" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G2" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H2" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I2" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -2288,7 +2404,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="9">
-        <f t="shared" si="0"/>
+        <f>SUM(D3:O3)</f>
         <v>53</v>
       </c>
       <c r="D3" s="3"/>
@@ -2300,160 +2416,246 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="B4" s="12">
         <v>3</v>
       </c>
       <c r="C4" s="9">
-        <f t="shared" si="0"/>
-        <v>13</v>
+        <f>SUM(D4:O4)</f>
+        <v>1</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="B5" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="9">
-        <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="D5" s="3">
-        <v>70</v>
+        <f>SUM(D5:O5)</f>
+        <v>13</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5">
+        <v>13</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="B6" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+        <f>SUM(D6:O6)</f>
+        <v>68</v>
+      </c>
+      <c r="D6" s="3">
+        <v>68</v>
+      </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="B7" s="12">
         <v>1</v>
       </c>
       <c r="C7" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+        <f>SUM(D7:O7)</f>
+        <v>517</v>
+      </c>
+      <c r="D7" s="3">
+        <v>426</v>
+      </c>
+      <c r="E7" s="3">
+        <f>E5*7</f>
+        <v>91</v>
+      </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="12"/>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="12">
+        <v>1</v>
+      </c>
       <c r="C8" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+        <f>SUM(D8:O8)</f>
+        <v>100</v>
+      </c>
+      <c r="D8" s="3">
+        <v>83</v>
+      </c>
+      <c r="E8" s="3">
+        <f>E5+4</f>
+        <v>17</v>
+      </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="12"/>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" s="12">
+        <v>2</v>
+      </c>
       <c r="C9" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D9" s="3"/>
+        <f>SUM(D9:O9)</f>
+        <v>81</v>
+      </c>
+      <c r="D9" s="3">
+        <v>68</v>
+      </c>
+      <c r="E9" s="3">
+        <f>E5</f>
+        <v>13</v>
+      </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="12"/>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" s="12">
+        <v>3</v>
+      </c>
       <c r="C10" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D10" s="3"/>
+        <f>SUM(D10:O10)</f>
+        <v>14</v>
+      </c>
+      <c r="D10" s="3">
+        <v>14</v>
+      </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="12"/>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="12">
+        <v>1</v>
+      </c>
       <c r="C11" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D11" s="3"/>
+        <f>SUM(D11:O11)</f>
+        <v>23</v>
+      </c>
+      <c r="D11" s="3">
+        <v>23</v>
+      </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="12"/>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12" s="12">
+        <v>3</v>
+      </c>
       <c r="C12" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D12" s="3"/>
+        <f>SUM(D12:O12)</f>
+        <v>2</v>
+      </c>
+      <c r="D12" s="3">
+        <v>2</v>
+      </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="12"/>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13" s="12">
+        <v>4</v>
+      </c>
       <c r="C13" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D13" s="3"/>
+        <f>SUM(D13:O13)</f>
+        <v>8</v>
+      </c>
+      <c r="D13" s="3">
+        <v>8</v>
+      </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="12"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="3"/>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>112</v>
+      </c>
+      <c r="B14" s="12">
+        <v>3</v>
+      </c>
+      <c r="C14" s="9">
+        <f>SUM(D14:O14)</f>
+        <v>8</v>
+      </c>
+      <c r="D14" s="3">
+        <v>8</v>
+      </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>113</v>
+      </c>
+      <c r="B15" s="12">
+        <v>5</v>
+      </c>
+      <c r="C15" s="9">
+        <f>SUM(D15:O15)</f>
+        <v>6</v>
+      </c>
+      <c r="D15" s="3">
+        <v>6</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2465,7 +2667,7 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K15"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2489,25 +2691,25 @@
         <v>0</v>
       </c>
       <c r="D1" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="I1" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="10" t="s">
         <v>40</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>43</v>
       </c>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
@@ -2521,76 +2723,82 @@
       <c r="B2" s="12"/>
       <c r="C2" s="9">
         <f t="shared" ref="C2:C15" si="0">SUM(D2:P2)</f>
-        <v>0</v>
+        <v>2488</v>
       </c>
       <c r="D2" s="3">
-        <f>SUMPRODUCT(D3:D31,$B$3:$B$31)</f>
-        <v>0</v>
+        <f>SUMPRODUCT(D3:D29,$B$3:$B$29)</f>
+        <v>472</v>
       </c>
       <c r="E2" s="3">
-        <f t="shared" ref="E2:J2" si="1">SUMPRODUCT(E3:E31,$B$3:$B$31)</f>
-        <v>0</v>
+        <f>SUMPRODUCT(E3:E29,$B$3:$B$29)</f>
+        <v>472</v>
       </c>
       <c r="F2" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUMPRODUCT(F3:F29,$B$3:$B$29)</f>
+        <v>472</v>
       </c>
       <c r="G2" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUMPRODUCT(G3:G29,$B$3:$B$29)</f>
+        <v>76</v>
       </c>
       <c r="H2" s="3">
-        <f t="shared" si="1"/>
+        <f>SUMPRODUCT(H3:H29,$B$3:$B$29)</f>
         <v>0</v>
       </c>
       <c r="I2" s="3">
-        <f t="shared" si="1"/>
+        <f>SUMPRODUCT(I3:I29,$B$3:$B$29)</f>
         <v>0</v>
       </c>
       <c r="J2" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUMPRODUCT(J3:J29,$B$3:$B$29)</f>
+        <v>996</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="12"/>
+      <c r="B3" s="12">
+        <v>2</v>
+      </c>
       <c r="C3" s="9">
         <f t="shared" si="0"/>
-        <v>186</v>
+        <v>25</v>
       </c>
       <c r="D3" s="3">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="E3" s="3">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="F3" s="3">
-        <v>62</v>
-      </c>
-      <c r="G3" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="12"/>
+        <v>117</v>
+      </c>
+      <c r="B4" s="12">
+        <v>3</v>
+      </c>
       <c r="C4" s="9">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D4" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E4" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F4" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -2598,21 +2806,23 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="12"/>
+        <v>116</v>
+      </c>
+      <c r="B5" s="12">
+        <v>3</v>
+      </c>
       <c r="C5" s="9">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D5" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E5" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F5" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -2620,9 +2830,11 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="12"/>
+        <v>31</v>
+      </c>
+      <c r="B6" s="12">
+        <v>4</v>
+      </c>
       <c r="C6" s="9">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2642,29 +2854,35 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
       </c>
       <c r="C7" s="9">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="D7">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E7">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F7">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>33</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
       </c>
       <c r="C8" s="9">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D8">
         <v>4</v>
@@ -2675,46 +2893,66 @@
       <c r="F8">
         <v>4</v>
       </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
       </c>
       <c r="C9" s="9">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>1512</v>
       </c>
       <c r="D9">
-        <v>8</v>
+        <v>252</v>
       </c>
       <c r="E9">
-        <v>8</v>
+        <v>252</v>
       </c>
       <c r="F9">
-        <v>8</v>
+        <v>252</v>
+      </c>
+      <c r="J9">
+        <f>252*3</f>
+        <v>756</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10">
         <v>2</v>
       </c>
       <c r="C10" s="9">
         <f t="shared" si="0"/>
-        <v>756</v>
+        <v>120</v>
       </c>
       <c r="D10">
-        <v>252</v>
+        <v>18</v>
       </c>
       <c r="E10">
-        <v>252</v>
+        <v>18</v>
       </c>
       <c r="F10">
-        <v>252</v>
+        <v>18</v>
+      </c>
+      <c r="J10">
+        <f>22*3</f>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>34</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
       </c>
       <c r="C11" s="9">
         <f t="shared" si="0"/>
@@ -2732,62 +2970,87 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
       </c>
       <c r="C12" s="9">
         <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+      <c r="D12">
         <v>18</v>
       </c>
-      <c r="D12">
-        <v>6</v>
-      </c>
       <c r="E12">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F12">
-        <v>6</v>
+        <v>18</v>
+      </c>
+      <c r="J12">
+        <f>54</f>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>42</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
       </c>
       <c r="C13" s="9">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D13">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E13">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F13">
-        <v>18</v>
+        <v>4</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>119</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
       </c>
       <c r="C14" s="9">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="I14">
-        <v>12</v>
+        <v>18</v>
+      </c>
+      <c r="G14">
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>118</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
       </c>
       <c r="C15" s="9">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="G15">
-        <v>18</v>
+      <c r="D15">
+        <v>6</v>
+      </c>
+      <c r="E15">
+        <v>6</v>
+      </c>
+      <c r="F15">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2800,7 +3063,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F23"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2816,7 +3079,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>17</v>
@@ -2825,28 +3088,28 @@
         <v>0</v>
       </c>
       <c r="D1" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>54</v>
-      </c>
       <c r="K1" s="10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -2859,41 +3122,41 @@
         <v>2010</v>
       </c>
       <c r="D2" s="3">
-        <f>SUMPRODUCT(D3:D31,$B$3:$B$31)</f>
+        <f t="shared" ref="D2:K2" si="1">SUMPRODUCT(D3:D31,$B$3:$B$31)</f>
         <v>456</v>
       </c>
       <c r="E2" s="3">
-        <f>SUMPRODUCT(E3:E31,$B$3:$B$31)</f>
+        <f t="shared" si="1"/>
         <v>456</v>
       </c>
       <c r="F2" s="3">
-        <f>SUMPRODUCT(F3:F31,$B$3:$B$31)</f>
+        <f t="shared" si="1"/>
         <v>478</v>
       </c>
       <c r="G2" s="3">
-        <f>SUMPRODUCT(G3:G31,$B$3:$B$31)</f>
+        <f t="shared" si="1"/>
         <v>123</v>
       </c>
       <c r="H2" s="3">
-        <f>SUMPRODUCT(H3:H31,$B$3:$B$31)</f>
+        <f t="shared" si="1"/>
         <v>123</v>
       </c>
       <c r="I2" s="3">
-        <f>SUMPRODUCT(I3:I31,$B$3:$B$31)</f>
+        <f t="shared" si="1"/>
         <v>123</v>
       </c>
       <c r="J2" s="3">
-        <f>SUMPRODUCT(J3:J31,$B$3:$B$31)</f>
+        <f t="shared" si="1"/>
         <v>123</v>
       </c>
       <c r="K2" s="3">
-        <f>SUMPRODUCT(K3:K31,$B$3:$B$31)</f>
+        <f t="shared" si="1"/>
         <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B3" s="12">
         <v>3</v>
@@ -2921,7 +3184,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B4" s="12">
         <v>3</v>
@@ -2955,7 +3218,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B5" s="12">
         <v>2</v>
@@ -2979,7 +3242,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B6" s="12">
         <v>2</v>
@@ -3001,7 +3264,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B7" s="12">
         <v>4</v>
@@ -3027,7 +3290,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B8" s="12">
         <v>2</v>
@@ -3053,7 +3316,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B9" s="12">
         <v>3</v>
@@ -3075,7 +3338,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B10" s="12">
         <v>2</v>
@@ -3097,7 +3360,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B11" s="12">
         <v>3</v>
@@ -3119,7 +3382,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B12" s="12">
         <v>1</v>
@@ -3145,7 +3408,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B13" s="12">
         <v>3</v>
@@ -3171,7 +3434,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B14" s="12">
         <v>1</v>
@@ -3197,7 +3460,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B15" s="12">
         <v>1</v>
@@ -3231,7 +3494,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B16" s="12">
         <v>2</v>
@@ -3257,7 +3520,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B17" s="12">
         <v>1</v>
@@ -3285,7 +3548,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B18" s="12">
         <v>1</v>
@@ -3321,7 +3584,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B19" s="12">
         <v>1</v>
@@ -3349,7 +3612,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B20" s="12">
         <v>1</v>
@@ -3377,7 +3640,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B21" s="12">
         <v>1</v>
@@ -3413,7 +3676,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B22" s="12">
         <v>4</v>
@@ -3428,7 +3691,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B23" s="12">
         <v>4</v>
@@ -3450,11 +3713,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
+      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3470,7 +3733,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="138" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>17</v>
@@ -3479,22 +3742,22 @@
         <v>0</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G1" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" s="18" t="s">
         <v>87</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>91</v>
       </c>
       <c r="J1" s="18"/>
       <c r="K1" s="18"/>
@@ -3542,7 +3805,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B3" s="12">
         <v>3</v>
@@ -3570,7 +3833,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B4" s="12">
         <v>5</v>
@@ -3598,7 +3861,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B5" s="12">
         <v>4</v>
@@ -3624,7 +3887,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B6" s="12">
         <v>4</v>
@@ -3652,7 +3915,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B7" s="12">
         <v>3</v>
@@ -3680,7 +3943,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B8" s="12">
         <v>2</v>
@@ -3710,7 +3973,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B9" s="12">
         <v>3</v>
@@ -3736,7 +3999,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B10" s="12">
         <v>3</v>
@@ -3759,7 +4022,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B11" s="12">
         <v>3</v>
@@ -3782,7 +4045,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B12" s="12">
         <v>1</v>
@@ -3810,7 +4073,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B13" s="12">
         <v>3</v>
@@ -3836,7 +4099,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>60</v>
+        <v>138</v>
       </c>
       <c r="B14" s="12">
         <v>1</v>
@@ -3864,7 +4127,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>137</v>
       </c>
       <c r="B15" s="12">
         <v>1</v>
@@ -3892,7 +4155,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B16" s="12">
         <v>2</v>
@@ -3918,7 +4181,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B17" s="12">
         <v>2</v>
@@ -3948,7 +4211,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B18" s="12">
         <v>3</v>
@@ -3976,7 +4239,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B19" s="12">
         <v>2</v>
@@ -4006,7 +4269,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B20" s="12">
         <v>3</v>
@@ -4036,7 +4299,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B21" s="12">
         <v>3</v>
@@ -4060,7 +4323,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B22" s="12">
         <v>2</v>
@@ -4085,7 +4348,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B23" s="12">
         <v>2</v>
@@ -4109,7 +4372,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B24" s="12">
         <v>1</v>
@@ -4139,7 +4402,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B25" s="12">
         <v>1</v>
@@ -4169,7 +4432,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B26" s="12">
         <v>1</v>
@@ -4199,7 +4462,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B27" s="12">
         <v>1</v>
@@ -4229,7 +4492,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B28" s="12">
         <v>1</v>
@@ -4259,7 +4522,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B29" s="12">
         <v>1</v>
@@ -4289,7 +4552,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B30" s="12">
         <v>3</v>
@@ -4313,7 +4576,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B31" s="12">
         <v>3</v>
@@ -4337,7 +4600,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B32" s="12">
         <v>2</v>
@@ -4361,7 +4624,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B33" s="12">
         <v>4</v>
@@ -4376,7 +4639,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B34" s="12">
         <v>3</v>
@@ -4391,7 +4654,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B35" s="12">
         <v>5</v>
@@ -4406,7 +4669,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B36" s="12">
         <v>2</v>
@@ -4421,7 +4684,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B37" s="12">
         <v>2</v>
@@ -4436,7 +4699,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B38" s="12">
         <v>2</v>
@@ -4451,7 +4714,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B39" s="12">
         <v>4</v>
@@ -4466,7 +4729,1130 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>109</v>
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.5703125" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="11" width="5.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="9">
+        <f>SUM(D2:P2)</f>
+        <v>7208</v>
+      </c>
+      <c r="D2" s="3">
+        <f>SUMPRODUCT(D3:D54,$B$3:$B$54)</f>
+        <v>901</v>
+      </c>
+      <c r="E2" s="3">
+        <f t="shared" ref="E2:J2" si="0">SUMPRODUCT(E3:E54,$B$3:$B$54)</f>
+        <v>901</v>
+      </c>
+      <c r="F2" s="3">
+        <f t="shared" si="0"/>
+        <v>901</v>
+      </c>
+      <c r="G2" s="3">
+        <f t="shared" si="0"/>
+        <v>901</v>
+      </c>
+      <c r="H2" s="3">
+        <f t="shared" si="0"/>
+        <v>901</v>
+      </c>
+      <c r="I2" s="3">
+        <f t="shared" si="0"/>
+        <v>901</v>
+      </c>
+      <c r="J2" s="3">
+        <f t="shared" si="0"/>
+        <v>901</v>
+      </c>
+      <c r="K2" s="3">
+        <f>SUMPRODUCT(K3:K54,$B$3:$B$54)</f>
+        <v>901</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" s="12">
+        <v>2</v>
+      </c>
+      <c r="C3" s="9">
+        <f t="shared" ref="C3:C39" si="1">SUM(D3:P3)</f>
+        <v>904</v>
+      </c>
+      <c r="D3" s="3">
+        <v>113</v>
+      </c>
+      <c r="E3" s="3">
+        <v>113</v>
+      </c>
+      <c r="F3" s="3">
+        <v>113</v>
+      </c>
+      <c r="G3" s="3">
+        <v>113</v>
+      </c>
+      <c r="H3" s="3">
+        <v>113</v>
+      </c>
+      <c r="I3" s="3">
+        <v>113</v>
+      </c>
+      <c r="J3" s="3">
+        <v>113</v>
+      </c>
+      <c r="K3" s="3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" s="12">
+        <v>1</v>
+      </c>
+      <c r="C4" s="9">
+        <f t="shared" si="1"/>
+        <v>2784</v>
+      </c>
+      <c r="D4" s="3">
+        <v>348</v>
+      </c>
+      <c r="E4" s="3">
+        <v>348</v>
+      </c>
+      <c r="F4" s="3">
+        <v>348</v>
+      </c>
+      <c r="G4" s="3">
+        <v>348</v>
+      </c>
+      <c r="H4" s="3">
+        <v>348</v>
+      </c>
+      <c r="I4" s="3">
+        <v>348</v>
+      </c>
+      <c r="J4" s="3">
+        <v>348</v>
+      </c>
+      <c r="K4" s="3">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" s="12">
+        <v>1</v>
+      </c>
+      <c r="C5" s="9">
+        <f t="shared" si="1"/>
+        <v>384</v>
+      </c>
+      <c r="D5" s="3">
+        <v>48</v>
+      </c>
+      <c r="E5" s="3">
+        <v>48</v>
+      </c>
+      <c r="F5" s="3">
+        <v>48</v>
+      </c>
+      <c r="G5" s="3">
+        <v>48</v>
+      </c>
+      <c r="H5" s="3">
+        <v>48</v>
+      </c>
+      <c r="I5" s="3">
+        <v>48</v>
+      </c>
+      <c r="J5" s="3">
+        <v>48</v>
+      </c>
+      <c r="K5" s="3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="12">
+        <v>2</v>
+      </c>
+      <c r="C6" s="9">
+        <f t="shared" si="1"/>
+        <v>288</v>
+      </c>
+      <c r="D6" s="3">
+        <v>36</v>
+      </c>
+      <c r="E6" s="3">
+        <v>36</v>
+      </c>
+      <c r="F6" s="3">
+        <v>36</v>
+      </c>
+      <c r="G6" s="3">
+        <v>36</v>
+      </c>
+      <c r="H6" s="3">
+        <v>36</v>
+      </c>
+      <c r="I6" s="3">
+        <v>36</v>
+      </c>
+      <c r="J6" s="3">
+        <v>36</v>
+      </c>
+      <c r="K6" s="3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="12">
+        <v>1</v>
+      </c>
+      <c r="C7" s="9">
+        <f t="shared" si="1"/>
+        <v>384</v>
+      </c>
+      <c r="D7" s="3">
+        <v>48</v>
+      </c>
+      <c r="E7" s="3">
+        <v>48</v>
+      </c>
+      <c r="F7" s="3">
+        <v>48</v>
+      </c>
+      <c r="G7" s="3">
+        <v>48</v>
+      </c>
+      <c r="H7" s="3">
+        <v>48</v>
+      </c>
+      <c r="I7" s="3">
+        <v>48</v>
+      </c>
+      <c r="J7" s="3">
+        <v>48</v>
+      </c>
+      <c r="K7" s="3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="12">
+        <v>3</v>
+      </c>
+      <c r="C8" s="9">
+        <f t="shared" si="1"/>
+        <v>168</v>
+      </c>
+      <c r="D8" s="3">
+        <v>21</v>
+      </c>
+      <c r="E8" s="3">
+        <v>21</v>
+      </c>
+      <c r="F8" s="3">
+        <v>21</v>
+      </c>
+      <c r="G8" s="3">
+        <v>21</v>
+      </c>
+      <c r="H8" s="3">
+        <v>21</v>
+      </c>
+      <c r="I8" s="3">
+        <v>21</v>
+      </c>
+      <c r="J8" s="3">
+        <v>21</v>
+      </c>
+      <c r="K8" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="12">
+        <v>4</v>
+      </c>
+      <c r="C9" s="9">
+        <f t="shared" si="1"/>
+        <v>192</v>
+      </c>
+      <c r="D9" s="3">
+        <v>24</v>
+      </c>
+      <c r="E9" s="3">
+        <v>24</v>
+      </c>
+      <c r="F9" s="3">
+        <v>24</v>
+      </c>
+      <c r="G9" s="3">
+        <v>24</v>
+      </c>
+      <c r="H9" s="3">
+        <v>24</v>
+      </c>
+      <c r="I9" s="3">
+        <v>24</v>
+      </c>
+      <c r="J9" s="3">
+        <v>24</v>
+      </c>
+      <c r="K9" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="12"/>
+      <c r="C10" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="12"/>
+      <c r="C11" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="12"/>
+      <c r="C12" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="12"/>
+      <c r="C13" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="12"/>
+      <c r="C14" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="12"/>
+      <c r="C15" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="12"/>
+      <c r="C16" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="12"/>
+      <c r="C17" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="12"/>
+      <c r="C18" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="12"/>
+      <c r="C19" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="12"/>
+      <c r="C20" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="12"/>
+      <c r="C21" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="12"/>
+      <c r="C22" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="12"/>
+      <c r="C23" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="12"/>
+      <c r="C24" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="12"/>
+      <c r="C25" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="12"/>
+      <c r="C26" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="12"/>
+      <c r="C27" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="12"/>
+      <c r="C28" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="12"/>
+      <c r="C29" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="5"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="12"/>
+      <c r="C32" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="12"/>
+      <c r="C33" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="12"/>
+      <c r="C34" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" s="12"/>
+      <c r="C35" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="12"/>
+      <c r="C36" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="12"/>
+      <c r="C37" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" s="12"/>
+      <c r="C38" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" s="12"/>
+      <c r="C39" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.5703125" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="5.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="9">
+        <f>SUM(D2:P2)</f>
+        <v>359</v>
+      </c>
+      <c r="D2" s="3">
+        <f>SUMPRODUCT(D3:D54,$B$3:$B$54)</f>
+        <v>359</v>
+      </c>
+      <c r="E2" s="3">
+        <f t="shared" ref="E2:I2" si="0">SUMPRODUCT(E3:E54,$B$3:$B$54)</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G2" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H2" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I2" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J2" s="3">
+        <f>SUMPRODUCT(J3:J54,$B$3:$B$54)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" s="12">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9">
+        <f t="shared" ref="C3:C39" si="1">SUM(D3:P3)</f>
+        <v>219</v>
+      </c>
+      <c r="D3" s="3">
+        <v>219</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4" s="12">
+        <v>1</v>
+      </c>
+      <c r="C4" s="9">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="D4" s="3">
+        <v>27</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5" s="12">
+        <v>1</v>
+      </c>
+      <c r="C5" s="9">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="D5" s="3">
+        <v>27</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="12">
+        <v>1</v>
+      </c>
+      <c r="C6" s="9">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>3</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="12">
+        <v>2</v>
+      </c>
+      <c r="C7" s="9">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D7" s="3">
+        <v>6</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="12">
+        <v>3</v>
+      </c>
+      <c r="C8" s="9">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="D8" s="3">
+        <v>9</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="12">
+        <v>2</v>
+      </c>
+      <c r="C9" s="9">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D9" s="3">
+        <v>6</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="12">
+        <v>4</v>
+      </c>
+      <c r="C10" s="9">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="D10" s="3">
+        <v>8</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="12"/>
+      <c r="C11" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="12"/>
+      <c r="C12" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="12"/>
+      <c r="C13" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="12"/>
+      <c r="C14" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="12"/>
+      <c r="C15" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="12"/>
+      <c r="C16" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="12"/>
+      <c r="C17" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="12"/>
+      <c r="C18" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="12"/>
+      <c r="C19" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="12"/>
+      <c r="C20" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="12"/>
+      <c r="C21" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="12"/>
+      <c r="C22" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="12"/>
+      <c r="C23" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="12"/>
+      <c r="C24" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="12"/>
+      <c r="C25" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="12"/>
+      <c r="C26" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="12"/>
+      <c r="C27" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="12"/>
+      <c r="C28" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="12"/>
+      <c r="C29" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="5"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="12"/>
+      <c r="C32" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="12"/>
+      <c r="C33" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="12"/>
+      <c r="C34" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" s="12"/>
+      <c r="C35" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="12"/>
+      <c r="C36" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="12"/>
+      <c r="C37" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" s="12"/>
+      <c r="C38" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" s="12"/>
+      <c r="C39" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/_reference/Berlin OOBs.xlsx
+++ b/_reference/Berlin OOBs.xlsx
@@ -9,16 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2760" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2760" firstSheet="5" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Berlin Bde" sheetId="1" r:id="rId1"/>
     <sheet name="Forces Françaises à Berlin" sheetId="18" r:id="rId2"/>
     <sheet name="Berlin Infantry Bde" sheetId="19" r:id="rId3"/>
-    <sheet name="6th Guards Sep MRBde" sheetId="20" r:id="rId4"/>
-    <sheet name="1st MRD (DDR)" sheetId="21" r:id="rId5"/>
-    <sheet name="DDR Border Rgts" sheetId="23" r:id="rId6"/>
-    <sheet name="DDR other" sheetId="22" r:id="rId7"/>
+    <sheet name="BRD police" sheetId="24" r:id="rId4"/>
+    <sheet name="6th Guards Sep MRBde" sheetId="20" r:id="rId5"/>
+    <sheet name="1st MRD (DDR)" sheetId="21" r:id="rId6"/>
+    <sheet name="DDR Border Rgts" sheetId="23" r:id="rId7"/>
+    <sheet name="DDR other" sheetId="22" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="158">
   <si>
     <t>TOTAL</t>
   </si>
@@ -417,9 +418,6 @@
     <t>19 People's Police</t>
   </si>
   <si>
-    <t>Postdam KdA</t>
-  </si>
-  <si>
     <t>Berlin KdA</t>
   </si>
   <si>
@@ -463,6 +461,58 @@
   </si>
   <si>
     <t>RPG-7D</t>
+  </si>
+  <si>
+    <t>D-20 152mm howitzer</t>
+  </si>
+  <si>
+    <t>M-46 130mm howitzer</t>
+  </si>
+  <si>
+    <t>Potsdam KdA</t>
+  </si>
+  <si>
+    <t>Mpi-KM</t>
+  </si>
+  <si>
+    <t>Granatwerfer 82</t>
+  </si>
+  <si>
+    <t>SPW-152</t>
+  </si>
+  <si>
+    <t>G3A3</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>M72A2</t>
+  </si>
+  <si>
+    <t>Golf Mk1</t>
+  </si>
+  <si>
+    <t>1 WBP</t>
+  </si>
+  <si>
+    <t>2 WBP</t>
+  </si>
+  <si>
+    <t>3 WBP</t>
+  </si>
+  <si>
+    <t>4 WBP</t>
+  </si>
+  <si>
+    <t>5 WBP</t>
+  </si>
+  <si>
+    <t>6 WBP</t>
+  </si>
+  <si>
+    <t>West Berlin Police
+36 companies</t>
   </si>
 </sst>
 </file>
@@ -546,7 +596,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -600,6 +650,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" textRotation="60" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1326,7 +1377,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B14" s="12">
         <v>2</v>
@@ -2667,7 +2718,7 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3059,6 +3110,266 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.5703125" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="9">
+        <f t="shared" ref="C2:C15" si="0">SUM(D2:O2)</f>
+        <v>10476</v>
+      </c>
+      <c r="D2" s="3">
+        <f>SUMPRODUCT(D3:D29,$B$3:$B$29)</f>
+        <v>1746</v>
+      </c>
+      <c r="E2" s="3">
+        <f>SUMPRODUCT(E3:E29,$B$3:$B$29)</f>
+        <v>1746</v>
+      </c>
+      <c r="F2" s="3">
+        <f>SUMPRODUCT(F3:F29,$B$3:$B$29)</f>
+        <v>1746</v>
+      </c>
+      <c r="G2" s="3">
+        <f>SUMPRODUCT(G3:G29,$B$3:$B$29)</f>
+        <v>1746</v>
+      </c>
+      <c r="H2" s="3">
+        <f>SUMPRODUCT(H3:H29,$B$3:$B$29)</f>
+        <v>1746</v>
+      </c>
+      <c r="I2" s="3">
+        <f>SUMPRODUCT(I3:I29,$B$3:$B$29)</f>
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B3" s="12">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9">
+        <f t="shared" si="0"/>
+        <v>1800</v>
+      </c>
+      <c r="D3" s="3">
+        <v>300</v>
+      </c>
+      <c r="E3" s="3">
+        <v>300</v>
+      </c>
+      <c r="F3" s="3">
+        <v>300</v>
+      </c>
+      <c r="G3" s="3">
+        <v>300</v>
+      </c>
+      <c r="H3" s="3">
+        <v>300</v>
+      </c>
+      <c r="I3" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4" s="12">
+        <v>1</v>
+      </c>
+      <c r="C4" s="9">
+        <f t="shared" si="0"/>
+        <v>3960</v>
+      </c>
+      <c r="D4" s="3">
+        <v>660</v>
+      </c>
+      <c r="E4" s="3">
+        <v>660</v>
+      </c>
+      <c r="F4" s="3">
+        <v>660</v>
+      </c>
+      <c r="G4" s="3">
+        <v>660</v>
+      </c>
+      <c r="H4" s="3">
+        <v>660</v>
+      </c>
+      <c r="I4" s="3">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B5" s="12">
+        <v>1</v>
+      </c>
+      <c r="C5" s="9">
+        <f t="shared" si="0"/>
+        <v>396</v>
+      </c>
+      <c r="D5" s="3">
+        <v>66</v>
+      </c>
+      <c r="E5" s="3">
+        <v>66</v>
+      </c>
+      <c r="F5" s="3">
+        <v>66</v>
+      </c>
+      <c r="G5" s="3">
+        <v>66</v>
+      </c>
+      <c r="H5" s="3">
+        <v>66</v>
+      </c>
+      <c r="I5" s="3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B6" s="12">
+        <v>1</v>
+      </c>
+      <c r="C6" s="9">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="D6" s="3">
+        <v>720</v>
+      </c>
+      <c r="E6" s="3">
+        <v>720</v>
+      </c>
+      <c r="F6" s="3">
+        <v>720</v>
+      </c>
+      <c r="G6" s="3">
+        <v>720</v>
+      </c>
+      <c r="H6" s="3">
+        <v>720</v>
+      </c>
+      <c r="I6" s="3">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C7" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C8" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C9" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C10" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C11" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C12" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C13" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C14" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C15" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K23"/>
   <sheetViews>
@@ -3709,15 +4020,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P48"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4099,7 +4410,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B14" s="12">
         <v>1</v>
@@ -4127,7 +4438,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B15" s="12">
         <v>1</v>
@@ -4737,12 +5048,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4765,28 +5076,28 @@
         <v>0</v>
       </c>
       <c r="D1" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="F1" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="G1" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="H1" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="I1" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="J1" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="K1" s="18" t="s">
         <v>134</v>
-      </c>
-      <c r="K1" s="18" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -4833,7 +5144,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B3" s="12">
         <v>2</v>
@@ -4869,7 +5180,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B4" s="12">
         <v>1</v>
@@ -4905,7 +5216,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B5" s="12">
         <v>1</v>
@@ -5358,12 +5669,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5372,7 +5683,9 @@
     <col min="2" max="2" width="3.5703125" customWidth="1"/>
     <col min="3" max="3" width="7.7109375" customWidth="1"/>
     <col min="4" max="4" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="5.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5401,10 +5714,10 @@
         <v>125</v>
       </c>
       <c r="I1" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="J1" s="20" t="s">
         <v>126</v>
-      </c>
-      <c r="J1" s="20" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -5413,155 +5726,203 @@
       </c>
       <c r="B2" s="12"/>
       <c r="C2" s="9">
-        <f>SUM(D2:P2)</f>
+        <f>SUM(D2:O2)</f>
+        <v>2390</v>
+      </c>
+      <c r="D2" s="3">
+        <f>SUMPRODUCT(D3:D55,$B$3:$B$55)</f>
         <v>359</v>
       </c>
-      <c r="D2" s="3">
-        <f>SUMPRODUCT(D3:D54,$B$3:$B$54)</f>
-        <v>359</v>
-      </c>
       <c r="E2" s="3">
-        <f t="shared" ref="E2:I2" si="0">SUMPRODUCT(E3:E54,$B$3:$B$54)</f>
-        <v>0</v>
+        <f t="shared" ref="E2:J2" si="0">SUMPRODUCT(E3:E55,$B$3:$B$55)</f>
+        <v>432</v>
       </c>
       <c r="F2" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>477</v>
       </c>
       <c r="G2" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="H2" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="I2" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>402</v>
       </c>
       <c r="J2" s="3">
-        <f>SUMPRODUCT(J3:J54,$B$3:$B$54)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>402</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B3" s="12">
         <v>1</v>
       </c>
       <c r="C3" s="9">
-        <f t="shared" ref="C3:C39" si="1">SUM(D3:P3)</f>
-        <v>219</v>
-      </c>
-      <c r="D3" s="3">
-        <v>219</v>
-      </c>
+        <f t="shared" ref="C3:C41" si="1">SUM(D3:O3)</f>
+        <v>795</v>
+      </c>
+      <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
+      <c r="F3" s="21">
+        <f>G3*3</f>
+        <v>189</v>
+      </c>
+      <c r="G3" s="3">
+        <v>63</v>
+      </c>
+      <c r="H3" s="3">
+        <v>63</v>
+      </c>
+      <c r="I3">
+        <v>240</v>
+      </c>
+      <c r="J3">
+        <v>240</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B4" s="12">
         <v>1</v>
       </c>
       <c r="C4" s="9">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>219</v>
       </c>
       <c r="D4" s="3">
-        <v>27</v>
+        <v>219</v>
       </c>
       <c r="E4" s="3"/>
+      <c r="F4" s="21"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B5" s="12">
         <v>1</v>
       </c>
       <c r="C5" s="9">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>147</v>
       </c>
       <c r="D5" s="3">
         <v>27</v>
       </c>
       <c r="E5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
+      <c r="F5" s="21">
+        <f t="shared" ref="F5:F17" si="2">G5*3</f>
+        <v>36</v>
+      </c>
+      <c r="G5" s="3">
+        <v>12</v>
+      </c>
+      <c r="H5" s="3">
+        <v>12</v>
+      </c>
+      <c r="I5">
+        <v>30</v>
+      </c>
+      <c r="J5">
+        <v>30</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>140</v>
       </c>
       <c r="B6" s="12">
         <v>1</v>
       </c>
       <c r="C6" s="9">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="D6" s="3">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="E6" s="3"/>
+      <c r="F6" s="21"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="B7" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" s="9">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="D7" s="3">
-        <v>6</v>
-      </c>
+        <f>SUM(D7:O7)</f>
+        <v>70</v>
+      </c>
+      <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
+      <c r="F7" s="21">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="G7" s="3">
+        <v>8</v>
+      </c>
+      <c r="H7" s="3">
+        <v>8</v>
+      </c>
+      <c r="I7">
+        <v>15</v>
+      </c>
+      <c r="J7">
+        <v>15</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="B8" s="12">
+        <v>1</v>
+      </c>
+      <c r="C8" s="9">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="D8" s="3">
         <v>3</v>
       </c>
-      <c r="C8" s="9">
-        <f t="shared" si="1"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="21">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="G8" s="3">
+        <v>4</v>
+      </c>
+      <c r="H8" s="3">
+        <v>4</v>
+      </c>
+      <c r="I8">
         <v>9</v>
       </c>
-      <c r="D8" s="3">
+      <c r="J8">
         <v>9</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="B9" s="12">
         <v>2</v>
@@ -5574,111 +5935,186 @@
         <v>6</v>
       </c>
       <c r="E9" s="3"/>
+      <c r="F9" s="21"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B10" s="12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" s="9">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E10" s="3"/>
+      <c r="F10" s="21"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="12"/>
+      <c r="A11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="12">
+        <v>2</v>
+      </c>
       <c r="C11" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D11" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="D11" s="3">
+        <v>6</v>
+      </c>
       <c r="E11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="12"/>
+      <c r="A12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="12">
+        <v>4</v>
+      </c>
       <c r="C12" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D12" s="3"/>
+        <v>35</v>
+      </c>
+      <c r="D12" s="3">
+        <v>8</v>
+      </c>
       <c r="E12" s="3"/>
+      <c r="F12" s="21">
+        <f>G15*3</f>
+        <v>27</v>
+      </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="12"/>
+      <c r="A13" t="s">
+        <v>142</v>
+      </c>
+      <c r="B13" s="12">
+        <v>8</v>
+      </c>
       <c r="C13" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="E13" s="3">
+        <v>36</v>
+      </c>
+      <c r="F13" s="21"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="12"/>
+      <c r="A14" t="s">
+        <v>141</v>
+      </c>
+      <c r="B14" s="12">
+        <v>8</v>
+      </c>
       <c r="C14" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="E14" s="3">
+        <v>18</v>
+      </c>
+      <c r="F14" s="21"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="12"/>
+      <c r="A15" t="s">
+        <v>145</v>
+      </c>
+      <c r="B15" s="12">
+        <v>4</v>
+      </c>
       <c r="C15" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
+      <c r="G15" s="3">
+        <v>9</v>
+      </c>
+      <c r="H15" s="3">
+        <v>9</v>
+      </c>
+      <c r="I15">
+        <v>9</v>
+      </c>
+      <c r="J15">
+        <v>9</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="12"/>
+      <c r="A16" t="s">
+        <v>146</v>
+      </c>
+      <c r="B16" s="12">
+        <v>2</v>
+      </c>
       <c r="C16" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
+      <c r="F16" s="21">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="G16" s="3">
+        <v>12</v>
+      </c>
+      <c r="H16" s="3">
+        <v>12</v>
+      </c>
+      <c r="I16">
+        <v>36</v>
+      </c>
+      <c r="J16">
+        <v>36</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="12"/>
+      <c r="A17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="12">
+        <v>2</v>
+      </c>
       <c r="C17" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
+      <c r="F17" s="21">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="G17" s="3">
+        <v>6</v>
+      </c>
+      <c r="H17" s="3">
+        <v>6</v>
+      </c>
       <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -5723,7 +6159,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
       <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B22" s="12"/>
@@ -5731,7 +6171,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
       <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23" s="12"/>
@@ -5747,6 +6191,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B25" s="12"/>
@@ -5754,6 +6199,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="G25" s="3"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B26" s="12"/>
@@ -5784,7 +6230,6 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
       <c r="B30" s="12"/>
       <c r="C30" s="9">
         <f t="shared" si="1"/>
@@ -5792,7 +6237,6 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
       <c r="B31" s="12"/>
       <c r="C31" s="9">
         <f t="shared" si="1"/>
@@ -5800,57 +6244,73 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
       <c r="B32" s="12"/>
       <c r="C32" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="5"/>
       <c r="B33" s="12"/>
       <c r="C33" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B34" s="12"/>
       <c r="C34" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B35" s="12"/>
       <c r="C35" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B36" s="12"/>
       <c r="C36" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B37" s="12"/>
       <c r="C37" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B38" s="12"/>
       <c r="C38" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B39" s="12"/>
       <c r="C39" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B40" s="12"/>
+      <c r="C40" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B41" s="12"/>
+      <c r="C41" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>

--- a/_reference/Berlin OOBs.xlsx
+++ b/_reference/Berlin OOBs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2760" firstSheet="5" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2760" firstSheet="6" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Berlin Bde" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="1st MRD (DDR)" sheetId="21" r:id="rId6"/>
     <sheet name="DDR Border Rgts" sheetId="23" r:id="rId7"/>
     <sheet name="DDR other" sheetId="22" r:id="rId8"/>
+    <sheet name="BRD Fallschirmjaeger" sheetId="25" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="173">
   <si>
     <t>TOTAL</t>
   </si>
@@ -513,6 +514,51 @@
   <si>
     <t>West Berlin Police
 36 companies</t>
+  </si>
+  <si>
+    <t>HQ company</t>
+  </si>
+  <si>
+    <t>Fallschirmjaeger btn</t>
+  </si>
+  <si>
+    <t>AT btn</t>
+  </si>
+  <si>
+    <t>Supply co</t>
+  </si>
+  <si>
+    <t>Transport co</t>
+  </si>
+  <si>
+    <t>Medical co</t>
+  </si>
+  <si>
+    <t>Engineer co</t>
+  </si>
+  <si>
+    <t>TOW</t>
+  </si>
+  <si>
+    <t>Rh202</t>
+  </si>
+  <si>
+    <t>Kraka</t>
+  </si>
+  <si>
+    <t>Iltis</t>
+  </si>
+  <si>
+    <t>Fallschirmjaeger co</t>
+  </si>
+  <si>
+    <t>Heavy company</t>
+  </si>
+  <si>
+    <t>PzF-44-1</t>
+  </si>
+  <si>
+    <t>MG3</t>
   </si>
 </sst>
 </file>
@@ -996,27 +1042,27 @@
         <v>3668</v>
       </c>
       <c r="D2" s="3">
-        <f>SUMPRODUCT(D3:D30,$B$3:$B$30)</f>
+        <f t="shared" ref="D2:I2" si="1">SUMPRODUCT(D3:D30,$B$3:$B$30)</f>
         <v>554</v>
       </c>
       <c r="E2" s="3">
-        <f>SUMPRODUCT(E3:E30,$B$3:$B$30)</f>
+        <f t="shared" si="1"/>
         <v>554</v>
       </c>
       <c r="F2" s="3">
-        <f>SUMPRODUCT(F3:F30,$B$3:$B$30)</f>
+        <f t="shared" si="1"/>
         <v>554</v>
       </c>
       <c r="G2" s="3">
-        <f>SUMPRODUCT(G3:G30,$B$3:$B$30)</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="H2" s="3">
-        <f>SUMPRODUCT(H3:H30,$B$3:$B$30)</f>
+        <f t="shared" si="1"/>
         <v>1860</v>
       </c>
       <c r="I2" s="3">
-        <f>SUMPRODUCT(I3:I30,$B$3:$B$30)</f>
+        <f t="shared" si="1"/>
         <v>96</v>
       </c>
       <c r="J2" s="3"/>
@@ -1102,11 +1148,11 @@
         <v>303</v>
       </c>
       <c r="E5" s="3">
-        <f t="shared" ref="E5:F5" si="1">3*(11+3*30)</f>
+        <f t="shared" ref="E5:F5" si="2">3*(11+3*30)</f>
         <v>303</v>
       </c>
       <c r="F5" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>303</v>
       </c>
       <c r="G5" s="3">
@@ -1143,11 +1189,11 @@
         <v>33</v>
       </c>
       <c r="E6" s="3">
-        <f t="shared" ref="E6:F6" si="2">3*3*3+6</f>
+        <f t="shared" ref="E6:F6" si="3">3*3*3+6</f>
         <v>33</v>
       </c>
       <c r="F6" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="G6" s="3"/>
@@ -1180,11 +1226,11 @@
         <v>54</v>
       </c>
       <c r="E7" s="3">
-        <f t="shared" ref="E7:F7" si="3">3*3*3*2</f>
+        <f t="shared" ref="E7:F7" si="4">3*3*3*2</f>
         <v>54</v>
       </c>
       <c r="F7" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>54</v>
       </c>
       <c r="G7" s="3"/>
@@ -1355,7 +1401,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="9">
-        <f t="shared" ref="C13" si="4">SUM(D13:P13)</f>
+        <f t="shared" ref="C13" si="5">SUM(D13:P13)</f>
         <v>36</v>
       </c>
       <c r="D13" s="3">
@@ -1383,7 +1429,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="9">
-        <f t="shared" ref="C14" si="5">SUM(D14:P14)</f>
+        <f t="shared" ref="C14" si="6">SUM(D14:P14)</f>
         <v>50</v>
       </c>
       <c r="D14" s="3"/>
@@ -2424,7 +2470,7 @@
       </c>
       <c r="B2" s="12"/>
       <c r="C2" s="9">
-        <f>SUM(D2:O2)</f>
+        <f t="shared" ref="C2:C15" si="0">SUM(D2:O2)</f>
         <v>1326</v>
       </c>
       <c r="D2" s="3">
@@ -2432,15 +2478,15 @@
         <v>938</v>
       </c>
       <c r="E2" s="3">
-        <f t="shared" ref="E2:I2" si="0">SUMPRODUCT(E3:E33,$B$3:$B$33)</f>
+        <f t="shared" ref="E2:G2" si="1">SUMPRODUCT(E3:E33,$B$3:$B$33)</f>
         <v>388</v>
       </c>
       <c r="F2" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G2" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H2" s="3"/>
@@ -2455,7 +2501,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="9">
-        <f>SUM(D3:O3)</f>
+        <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="D3" s="3"/>
@@ -2475,7 +2521,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="9">
-        <f>SUM(D4:O4)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D4" s="3"/>
@@ -2495,7 +2541,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="9">
-        <f>SUM(D5:O5)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="D5" s="3"/>
@@ -2515,7 +2561,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="9">
-        <f>SUM(D6:O6)</f>
+        <f t="shared" si="0"/>
         <v>68</v>
       </c>
       <c r="D6" s="3">
@@ -2534,7 +2580,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="9">
-        <f>SUM(D7:O7)</f>
+        <f t="shared" si="0"/>
         <v>517</v>
       </c>
       <c r="D7" s="3">
@@ -2557,7 +2603,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="9">
-        <f>SUM(D8:O8)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D8" s="3">
@@ -2580,7 +2626,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="9">
-        <f>SUM(D9:O9)</f>
+        <f t="shared" si="0"/>
         <v>81</v>
       </c>
       <c r="D9" s="3">
@@ -2603,7 +2649,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="9">
-        <f>SUM(D10:O10)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="D10" s="3">
@@ -2622,7 +2668,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="9">
-        <f>SUM(D11:O11)</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="D11" s="3">
@@ -2641,7 +2687,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="9">
-        <f>SUM(D12:O12)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="D12" s="3">
@@ -2660,7 +2706,7 @@
         <v>4</v>
       </c>
       <c r="C13" s="9">
-        <f>SUM(D13:O13)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="D13" s="3">
@@ -2679,7 +2725,7 @@
         <v>3</v>
       </c>
       <c r="C14" s="9">
-        <f>SUM(D14:O14)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="D14" s="3">
@@ -2698,7 +2744,7 @@
         <v>5</v>
       </c>
       <c r="C15" s="9">
-        <f>SUM(D15:O15)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D15" s="3">
@@ -2777,31 +2823,31 @@
         <v>2488</v>
       </c>
       <c r="D2" s="3">
-        <f>SUMPRODUCT(D3:D29,$B$3:$B$29)</f>
+        <f t="shared" ref="D2:J2" si="1">SUMPRODUCT(D3:D29,$B$3:$B$29)</f>
         <v>472</v>
       </c>
       <c r="E2" s="3">
-        <f>SUMPRODUCT(E3:E29,$B$3:$B$29)</f>
+        <f t="shared" si="1"/>
         <v>472</v>
       </c>
       <c r="F2" s="3">
-        <f>SUMPRODUCT(F3:F29,$B$3:$B$29)</f>
+        <f t="shared" si="1"/>
         <v>472</v>
       </c>
       <c r="G2" s="3">
-        <f>SUMPRODUCT(G3:G29,$B$3:$B$29)</f>
+        <f t="shared" si="1"/>
         <v>76</v>
       </c>
       <c r="H2" s="3">
-        <f>SUMPRODUCT(H3:H29,$B$3:$B$29)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I2" s="3">
-        <f>SUMPRODUCT(I3:I29,$B$3:$B$29)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J2" s="3">
-        <f>SUMPRODUCT(J3:J29,$B$3:$B$29)</f>
+        <f t="shared" si="1"/>
         <v>996</v>
       </c>
     </row>
@@ -3166,27 +3212,27 @@
         <v>10476</v>
       </c>
       <c r="D2" s="3">
-        <f>SUMPRODUCT(D3:D29,$B$3:$B$29)</f>
+        <f t="shared" ref="D2:I2" si="1">SUMPRODUCT(D3:D29,$B$3:$B$29)</f>
         <v>1746</v>
       </c>
       <c r="E2" s="3">
-        <f>SUMPRODUCT(E3:E29,$B$3:$B$29)</f>
+        <f t="shared" si="1"/>
         <v>1746</v>
       </c>
       <c r="F2" s="3">
-        <f>SUMPRODUCT(F3:F29,$B$3:$B$29)</f>
+        <f t="shared" si="1"/>
         <v>1746</v>
       </c>
       <c r="G2" s="3">
-        <f>SUMPRODUCT(G3:G29,$B$3:$B$29)</f>
+        <f t="shared" si="1"/>
         <v>1746</v>
       </c>
       <c r="H2" s="3">
-        <f>SUMPRODUCT(H3:H29,$B$3:$B$29)</f>
+        <f t="shared" si="1"/>
         <v>1746</v>
       </c>
       <c r="I2" s="3">
-        <f>SUMPRODUCT(I3:I29,$B$3:$B$29)</f>
+        <f t="shared" si="1"/>
         <v>1746</v>
       </c>
     </row>
@@ -5673,8 +5719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6318,4 +6364,794 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AD22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.28515625" customWidth="1"/>
+    <col min="23" max="23" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.85546875" customWidth="1"/>
+    <col min="25" max="25" width="6.28515625" customWidth="1"/>
+    <col min="26" max="26" width="7" customWidth="1"/>
+    <col min="27" max="27" width="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" ht="129" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="T1" s="2"/>
+      <c r="U1" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="V1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="W1" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="X1" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y1" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z1" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA1" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="AB1" s="18"/>
+      <c r="AC1" s="20"/>
+      <c r="AD1" s="20"/>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="9">
+        <f>SUM(D2:O2)</f>
+        <v>2332</v>
+      </c>
+      <c r="D2" s="3">
+        <f>SUMPRODUCT(D3:D54,$B$3:$B$54)</f>
+        <v>42</v>
+      </c>
+      <c r="E2" s="3">
+        <f>SUMPRODUCT(E3:E54,$B$3:$B$54)</f>
+        <v>576</v>
+      </c>
+      <c r="F2" s="3">
+        <f>SUMPRODUCT(F3:F54,$B$3:$B$54)</f>
+        <v>576</v>
+      </c>
+      <c r="G2" s="3">
+        <f>SUMPRODUCT(G3:G54,$B$3:$B$54)</f>
+        <v>384</v>
+      </c>
+      <c r="H2" s="3">
+        <f>SUMPRODUCT(H3:H54,$B$3:$B$54)</f>
+        <v>384</v>
+      </c>
+      <c r="I2" s="3">
+        <f>SUMPRODUCT(I3:I54,$B$3:$B$54)</f>
+        <v>90</v>
+      </c>
+      <c r="J2" s="3">
+        <f>SUMPRODUCT(J3:J54,$B$3:$B$54)</f>
+        <v>78</v>
+      </c>
+      <c r="K2" s="3">
+        <f>SUMPRODUCT(K3:K54,$B$3:$B$54)</f>
+        <v>48</v>
+      </c>
+      <c r="L2" s="3">
+        <f>SUMPRODUCT(L3:L54,$B$3:$B$54)</f>
+        <v>154</v>
+      </c>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="T2" t="s">
+        <v>1</v>
+      </c>
+      <c r="U2" s="12"/>
+      <c r="V2" s="9">
+        <f>SUM(W2:AA2)</f>
+        <v>576</v>
+      </c>
+      <c r="W2" s="3">
+        <f>SUMPRODUCT(W3:W16,$U$3:$U$16)</f>
+        <v>72</v>
+      </c>
+      <c r="X2" s="3">
+        <f t="shared" ref="X2:AA2" si="0">SUMPRODUCT(X3:X16,$U$3:$U$16)</f>
+        <v>120</v>
+      </c>
+      <c r="Y2" s="3">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="Z2" s="3">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="AA2" s="3">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B3" s="12">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9">
+        <f t="shared" ref="C3:C16" si="1">SUM(D3:O3)</f>
+        <v>1316</v>
+      </c>
+      <c r="D3" s="3">
+        <v>20</v>
+      </c>
+      <c r="E3" s="21">
+        <v>366</v>
+      </c>
+      <c r="F3" s="21">
+        <v>366</v>
+      </c>
+      <c r="G3" s="3">
+        <f>6*G4</f>
+        <v>180</v>
+      </c>
+      <c r="H3" s="3">
+        <f>6*H4</f>
+        <v>180</v>
+      </c>
+      <c r="I3" s="3">
+        <v>40</v>
+      </c>
+      <c r="J3" s="3">
+        <v>18</v>
+      </c>
+      <c r="K3" s="3">
+        <v>48</v>
+      </c>
+      <c r="L3" s="3">
+        <v>98</v>
+      </c>
+      <c r="T3" t="s">
+        <v>147</v>
+      </c>
+      <c r="U3" s="12">
+        <v>1</v>
+      </c>
+      <c r="V3" s="9">
+        <f t="shared" ref="V3:V16" si="2">SUM(W3:AA3)</f>
+        <v>366</v>
+      </c>
+      <c r="W3" s="3">
+        <v>60</v>
+      </c>
+      <c r="X3" s="3">
+        <v>82</v>
+      </c>
+      <c r="Y3" s="21">
+        <f>X3</f>
+        <v>82</v>
+      </c>
+      <c r="Z3" s="3">
+        <f>X3</f>
+        <v>82</v>
+      </c>
+      <c r="AA3" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B4" s="12">
+        <v>4</v>
+      </c>
+      <c r="C4" s="9">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2</v>
+      </c>
+      <c r="E4" s="21">
+        <v>10</v>
+      </c>
+      <c r="F4" s="21">
+        <v>10</v>
+      </c>
+      <c r="G4" s="3">
+        <v>30</v>
+      </c>
+      <c r="H4" s="3">
+        <v>30</v>
+      </c>
+      <c r="T4" t="s">
+        <v>165</v>
+      </c>
+      <c r="U4" s="12">
+        <v>4</v>
+      </c>
+      <c r="V4" s="9">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="21">
+        <f t="shared" ref="Y4:Y16" si="3">X4</f>
+        <v>0</v>
+      </c>
+      <c r="Z4" s="3">
+        <f t="shared" ref="Z4:Z10" si="4">X4</f>
+        <v>0</v>
+      </c>
+      <c r="AA4" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" s="12">
+        <v>3</v>
+      </c>
+      <c r="C5" s="9">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="21">
+        <v>6</v>
+      </c>
+      <c r="F5" s="21">
+        <v>6</v>
+      </c>
+      <c r="G5" s="3">
+        <v>18</v>
+      </c>
+      <c r="H5" s="3">
+        <v>18</v>
+      </c>
+      <c r="T5" t="s">
+        <v>166</v>
+      </c>
+      <c r="U5" s="12">
+        <v>3</v>
+      </c>
+      <c r="V5" s="9">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z5" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" s="12">
+        <v>2</v>
+      </c>
+      <c r="C6" s="9">
+        <f>SUM(D6:O6)</f>
+        <v>24</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3">
+        <v>12</v>
+      </c>
+      <c r="F6" s="3">
+        <v>12</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="T6" t="s">
+        <v>108</v>
+      </c>
+      <c r="U6" s="12">
+        <v>2</v>
+      </c>
+      <c r="V6" s="9">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3">
+        <v>4</v>
+      </c>
+      <c r="Y6" s="21">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="Z6" s="3">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="AA6" s="3"/>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B7" s="12">
+        <v>1</v>
+      </c>
+      <c r="C7" s="9">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="D7" s="3">
+        <v>12</v>
+      </c>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7">
+        <v>20</v>
+      </c>
+      <c r="J7">
+        <v>60</v>
+      </c>
+      <c r="T7" t="s">
+        <v>168</v>
+      </c>
+      <c r="U7" s="12">
+        <v>1</v>
+      </c>
+      <c r="V7" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z7" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA7" s="3"/>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B8" s="12">
+        <v>1</v>
+      </c>
+      <c r="C8" s="9">
+        <f t="shared" si="1"/>
+        <v>112</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2</v>
+      </c>
+      <c r="E8" s="21">
+        <v>10</v>
+      </c>
+      <c r="F8" s="21">
+        <v>10</v>
+      </c>
+      <c r="G8" s="3">
+        <v>30</v>
+      </c>
+      <c r="H8" s="3">
+        <v>30</v>
+      </c>
+      <c r="I8" s="3">
+        <v>30</v>
+      </c>
+      <c r="T8" t="s">
+        <v>167</v>
+      </c>
+      <c r="U8" s="12">
+        <v>1</v>
+      </c>
+      <c r="V8" s="9">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z8" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9" s="12">
+        <v>4</v>
+      </c>
+      <c r="C9" s="9">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="21">
+        <v>4</v>
+      </c>
+      <c r="F9" s="21">
+        <v>4</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="T9" t="s">
+        <v>113</v>
+      </c>
+      <c r="U9" s="12">
+        <v>4</v>
+      </c>
+      <c r="V9" s="9">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z9" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>171</v>
+      </c>
+      <c r="B10" s="12">
+        <v>1</v>
+      </c>
+      <c r="C10" s="9">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10">
+        <v>18</v>
+      </c>
+      <c r="F10">
+        <v>18</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="L10">
+        <v>8</v>
+      </c>
+      <c r="T10" t="s">
+        <v>171</v>
+      </c>
+      <c r="U10" s="12">
+        <v>1</v>
+      </c>
+      <c r="V10" s="9">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3">
+        <v>6</v>
+      </c>
+      <c r="Y10" s="21">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="Z10" s="3">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="AA10" s="3"/>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>149</v>
+      </c>
+      <c r="B11" s="12">
+        <v>1</v>
+      </c>
+      <c r="C11" s="9">
+        <f t="shared" si="1"/>
+        <v>112</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="21">
+        <v>44</v>
+      </c>
+      <c r="F11" s="21">
+        <v>44</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="L11">
+        <v>24</v>
+      </c>
+      <c r="T11" t="s">
+        <v>149</v>
+      </c>
+      <c r="U11" s="12">
+        <v>1</v>
+      </c>
+      <c r="V11" s="9">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="W11" s="3">
+        <v>8</v>
+      </c>
+      <c r="X11" s="3">
+        <v>12</v>
+      </c>
+      <c r="Y11" s="21">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="Z11" s="3">
+        <f t="shared" ref="Z11:Z16" si="5">X11</f>
+        <v>12</v>
+      </c>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>172</v>
+      </c>
+      <c r="B12" s="12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="9">
+        <f t="shared" si="1"/>
+        <v>104</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="21">
+        <v>40</v>
+      </c>
+      <c r="F12" s="21">
+        <v>40</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="L12">
+        <v>24</v>
+      </c>
+      <c r="T12" t="s">
+        <v>172</v>
+      </c>
+      <c r="U12" s="12">
+        <v>1</v>
+      </c>
+      <c r="V12" s="9">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="W12" s="3">
+        <v>4</v>
+      </c>
+      <c r="X12" s="3">
+        <v>12</v>
+      </c>
+      <c r="Y12" s="21">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="Z12" s="3">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="AA12" s="3"/>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B13" s="12"/>
+      <c r="C13" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3"/>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B14" s="12"/>
+      <c r="C14" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3"/>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B15" s="12"/>
+      <c r="C15" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3"/>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B16" s="12"/>
+      <c r="C16" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z16" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="21" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L21" s="20"/>
+    </row>
+    <row r="22" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L22" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>